--- a/Implicit_bias_pavlovia/task/html/resources/cong_train.xlsx
+++ b/Implicit_bias_pavlovia/task/html/resources/cong_train.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lpzjwp\Dropbox\_psychopyStuff\experiments\openIAT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\OpenBrains\Implicit_bias_pavlovia\task\html\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED8B653-B8AF-4BB5-AB89-0EA0C5BF0A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="9315" windowWidth="14565" windowHeight="18000"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -77,13 +72,13 @@
     <t>stimuli/white_5.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,20 +389,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -418,7 +413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -429,7 +424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -440,7 +435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -451,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -462,7 +457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -473,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -484,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -495,7 +490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -506,7 +501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -517,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
